--- a/tt.xlsx
+++ b/tt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DD110-CCC7-4EF3-86D8-013F5F3F1B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F9577-195D-45F6-9AE9-584489B99579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="2940" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
